--- a/data/out/wiki/men/fifa/wc/third_teams_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/third_teams_wc_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>changes</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>half_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -584,6 +589,7 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -661,6 +667,7 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -742,6 +749,7 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -823,6 +831,7 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -904,6 +913,7 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -985,6 +995,7 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1066,6 +1077,7 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1147,6 +1159,7 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1228,6 +1241,7 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1309,6 +1323,7 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1390,6 +1405,7 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1471,6 +1487,7 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1569,7 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1633,6 +1651,7 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1710,6 +1729,7 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1787,6 +1807,7 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1868,6 +1889,7 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1949,6 +1971,7 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2030,6 +2053,7 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2111,6 +2135,7 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2217,7 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2273,6 +2299,7 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2354,6 +2381,7 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2435,6 +2463,7 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2442,7 +2471,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2450,12 +2479,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2512,6 +2541,7 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2527,12 +2557,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2589,6 +2619,7 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2596,7 +2627,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2604,12 +2635,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2666,6 +2697,7 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2747,6 +2779,7 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2828,6 +2861,7 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2909,6 +2943,7 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2990,6 +3025,7 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3071,6 +3107,7 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3189,7 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3233,6 +3271,7 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3314,6 +3353,7 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3395,6 +3435,7 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3476,6 +3517,7 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3557,6 +3599,7 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3564,7 +3607,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3572,12 +3615,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -3634,6 +3677,7 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3649,12 +3693,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -3711,6 +3755,7 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3718,7 +3763,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3726,12 +3771,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3788,6 +3833,7 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3869,6 +3915,7 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3950,6 +3997,7 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4031,6 +4079,7 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4161,7 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4193,6 +4243,7 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4274,6 +4325,7 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4339,6 +4391,7 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4416,6 +4469,7 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4493,6 +4547,7 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4570,6 +4625,7 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4651,6 +4707,7 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4732,6 +4789,7 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4813,6 +4871,7 @@
       <c r="Q55" t="n">
         <v>1</v>
       </c>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4894,6 +4953,7 @@
       <c r="Q56" t="n">
         <v>1</v>
       </c>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4975,6 +5035,7 @@
       <c r="Q57" t="n">
         <v>1</v>
       </c>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5056,6 +5117,7 @@
       <c r="Q58" t="n">
         <v>1</v>
       </c>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5137,6 +5199,7 @@
       <c r="Q59" t="n">
         <v>2</v>
       </c>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5218,6 +5281,7 @@
       <c r="Q60" t="n">
         <v>2</v>
       </c>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5299,6 +5363,7 @@
       <c r="Q61" t="n">
         <v>3</v>
       </c>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5306,7 +5371,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5314,12 +5379,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -5376,6 +5441,7 @@
       <c r="Q62" t="n">
         <v>3</v>
       </c>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5391,12 +5457,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -5453,6 +5519,7 @@
       <c r="Q63" t="n">
         <v>3</v>
       </c>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5460,7 +5527,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -5468,12 +5535,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -5530,6 +5597,7 @@
       <c r="Q64" t="n">
         <v>3</v>
       </c>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5611,6 +5679,7 @@
       <c r="Q65" t="n">
         <v>3</v>
       </c>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5692,6 +5761,7 @@
       <c r="Q66" t="n">
         <v>3</v>
       </c>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5773,6 +5843,7 @@
       <c r="Q67" t="n">
         <v>3</v>
       </c>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5854,6 +5925,7 @@
       <c r="Q68" t="n">
         <v>3</v>
       </c>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5935,6 +6007,7 @@
       <c r="Q69" t="n">
         <v>3</v>
       </c>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6016,6 +6089,7 @@
       <c r="Q70" t="n">
         <v>3</v>
       </c>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6097,6 +6171,7 @@
       <c r="Q71" t="n">
         <v>3</v>
       </c>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6174,6 +6249,7 @@
       <c r="Q72" t="n">
         <v>3</v>
       </c>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6255,6 +6331,7 @@
       <c r="Q73" t="n">
         <v>3</v>
       </c>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6336,6 +6413,7 @@
       <c r="Q74" t="n">
         <v>3</v>
       </c>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6417,6 +6495,7 @@
       <c r="Q75" t="n">
         <v>3</v>
       </c>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6498,6 +6577,7 @@
       <c r="Q76" t="n">
         <v>3</v>
       </c>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6579,6 +6659,7 @@
       <c r="Q77" t="n">
         <v>3</v>
       </c>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6660,6 +6741,7 @@
       <c r="Q78" t="n">
         <v>3</v>
       </c>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6741,6 +6823,7 @@
       <c r="Q79" t="n">
         <v>3</v>
       </c>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6822,6 +6905,7 @@
       <c r="Q80" t="n">
         <v>3</v>
       </c>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6903,6 +6987,7 @@
       <c r="Q81" t="n">
         <v>3</v>
       </c>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6984,6 +7069,7 @@
       <c r="Q82" t="n">
         <v>3</v>
       </c>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7065,6 +7151,7 @@
       <c r="Q83" t="n">
         <v>3</v>
       </c>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7146,6 +7233,7 @@
       <c r="Q84" t="n">
         <v>3</v>
       </c>
+      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7153,7 +7241,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -7161,12 +7249,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -7223,6 +7311,7 @@
       <c r="Q85" t="n">
         <v>3</v>
       </c>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7230,7 +7319,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -7238,12 +7327,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -7300,6 +7389,7 @@
       <c r="Q86" t="n">
         <v>3</v>
       </c>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7381,6 +7471,7 @@
       <c r="Q87" t="n">
         <v>3</v>
       </c>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7462,6 +7553,7 @@
       <c r="Q88" t="n">
         <v>3</v>
       </c>
+      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7469,7 +7561,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -7477,17 +7569,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7543,6 +7635,7 @@
       <c r="Q89" t="n">
         <v>3</v>
       </c>
+      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7550,7 +7643,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -7558,17 +7651,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7624,6 +7717,7 @@
       <c r="Q90" t="n">
         <v>3</v>
       </c>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7705,6 +7799,7 @@
       <c r="Q91" t="n">
         <v>3</v>
       </c>
+      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7786,6 +7881,7 @@
       <c r="Q92" t="n">
         <v>3</v>
       </c>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7867,6 +7963,7 @@
       <c r="Q93" t="n">
         <v>3</v>
       </c>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7948,6 +8045,7 @@
       <c r="Q94" t="n">
         <v>3</v>
       </c>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8029,6 +8127,7 @@
       <c r="Q95" t="n">
         <v>3</v>
       </c>
+      <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8110,6 +8209,7 @@
       <c r="Q96" t="n">
         <v>3</v>
       </c>
+      <c r="R96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8191,6 +8291,7 @@
       <c r="Q97" t="n">
         <v>3</v>
       </c>
+      <c r="R97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
